--- a/2. Valid_Invalid_Emails.xlsx
+++ b/2. Valid_Invalid_Emails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Me_Mastering_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E384B5-4BD9-42AA-AD03-A93CA4D00825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23379797-F8B0-47AF-9E68-335A0EF09D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{168075B0-DD27-4E6B-B44A-4DC4CEF1BE69}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{168075B0-DD27-4E6B-B44A-4DC4CEF1BE69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,13 +137,13 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -503,7 +503,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>5. AND is checking if both the conditions are true.</a:t>
+            <a:t>5. AND is checking if  both the conditions are true.</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -522,17 +522,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6A54671-CDF6-41CB-9589-6E647C587500}" name="Table1" displayName="Table1" ref="B6:G11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6A54671-CDF6-41CB-9589-6E647C587500}" name="Table1" displayName="Table1" ref="B6:G11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B6:G11" xr:uid="{D6A54671-CDF6-41CB-9589-6E647C587500}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D572FEBF-7813-4908-B0B5-9093D2B74F38}" name="Customer ID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{B5B4E306-BD2B-467A-BD9F-EBA74B7132F9}" name="Name" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{91A71A52-0232-4236-8124-60320FE2E668}" name="Email" dataDxfId="5" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{B88DA51C-2563-4CB4-A7A9-DD803E63081D}" name="Valid emails" dataDxfId="0" dataCellStyle="Hyperlink">
+    <tableColumn id="1" xr3:uid="{D572FEBF-7813-4908-B0B5-9093D2B74F38}" name="Customer ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B5B4E306-BD2B-467A-BD9F-EBA74B7132F9}" name="Name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{91A71A52-0232-4236-8124-60320FE2E668}" name="Email" dataDxfId="3" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{B88DA51C-2563-4CB4-A7A9-DD803E63081D}" name="Valid emails" dataDxfId="2" dataCellStyle="Hyperlink">
       <calculatedColumnFormula>IF(AND(ISNUMBER(SEARCH("@",Table1[[#This Row],[Email]])), ISNUMBER(SEARCH(".",Table1[[#This Row],[Email]]))),"valid", "invalid")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8B0581C7-31CA-4BBC-89DC-D3C337B717C1}" name="Phone No" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{B484B0FA-82B9-47D9-8B17-D103E0FE9D3E}" name="Purchase Amount" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{8B0581C7-31CA-4BBC-89DC-D3C337B717C1}" name="Phone No" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{B484B0FA-82B9-47D9-8B17-D103E0FE9D3E}" name="Purchase Amount" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -861,16 +861,16 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,7 +890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>101</v>
       </c>
@@ -911,7 +911,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>102</v>
       </c>
@@ -932,7 +932,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>103</v>
       </c>
@@ -953,7 +953,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>104</v>
       </c>
@@ -974,7 +974,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>105</v>
       </c>

--- a/2. Valid_Invalid_Emails.xlsx
+++ b/2. Valid_Invalid_Emails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23379797-F8B0-47AF-9E68-335A0EF09D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FEACD2-D1B6-4C52-8E21-8B6E9DE6E80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{168075B0-DD27-4E6B-B44A-4DC4CEF1BE69}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Customer ID</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Valid emails</t>
+  </si>
+  <si>
+    <t>nnnnnnnnn</t>
   </si>
 </sst>
 </file>
@@ -855,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F245A3E-1651-45A0-8692-ED981EC55D19}">
-  <dimension ref="B6:G11"/>
+  <dimension ref="B6:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,6 +996,11 @@
       </c>
       <c r="G11" s="1">
         <v>6000</v>
+      </c>
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L18" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/2. Valid_Invalid_Emails.xlsx
+++ b/2. Valid_Invalid_Emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FEACD2-D1B6-4C52-8E21-8B6E9DE6E80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AC9C04-8B75-4045-8404-97BBF24A713F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{168075B0-DD27-4E6B-B44A-4DC4CEF1BE69}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Customer ID</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>nnnnnnnnn</t>
+  </si>
+  <si>
+    <t>….</t>
   </si>
 </sst>
 </file>
@@ -861,7 +864,7 @@
   <dimension ref="B6:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -873,7 +876,7 @@
     <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,7 +896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>101</v>
       </c>
@@ -914,7 +917,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>102</v>
       </c>
@@ -935,7 +938,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>103</v>
       </c>
@@ -956,7 +959,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>104</v>
       </c>
@@ -977,7 +980,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>105</v>
       </c>
@@ -996,6 +999,11 @@
       </c>
       <c r="G11" s="1">
         <v>6000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="12:12" x14ac:dyDescent="0.3">
